--- a/2字头书架.xlsx
+++ b/2字头书架.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Administrator\Desktop\杂\主义主义\书架\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SanfishTT\Documents\2字头书架\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8026B19-4DDC-4341-A25F-31771F4890C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62124E41-B6E6-4968-93E1-A94EA8D55353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,11 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经量部的种子形而上学
-经量部《俱舍论》《顺正理论》《异部宗轮论》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摩尔唯心主义
 成唯识论《成唯识论》</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,11 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乐于接受的小体主义
-波义耳《怀疑派化学家》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验的观念论
 洛克《人类理解论》</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,21 +401,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-4-2实证主义
-孔德《实证哲学教程》六卷《实证政治体系或论建立人道宗教的社会学论文》四卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自然主义的观念论
 穆勒《逻辑体系》《政治经济学原理》《论自由》《功利主义》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自然神论的实证主义
-斯宾塞《基本原理》（第一原理）《个体与国家》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>科学的实证主义
 马赫《力学及其发展的批判历史概论》《感觉的分析》</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +453,26 @@
   <si>
     <t>符号实用主义
 语言（齐泽克 《性与失败的绝对》中的论断，无对应）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐于接受的小体主义
+波义耳《怀疑的化学家》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4-2实证主义
+孔德《实证哲学教程》六卷《实证政治体系或论建立人道宗教的社会学论文》四卷（找不到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然神论的实证主义
+斯宾塞《个体与国家》《社会静力学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经量部的种子形而上学
+经量部《俱舍论》《顺正理论》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,15 +942,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -958,13 +958,13 @@
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,10 +1006,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,13 +1017,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
+      <c r="D6" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1031,13 +1031,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>77</v>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,13 +1059,13 @@
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,13 +1087,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>80</v>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,10 +1104,10 @@
         <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,10 +1118,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,13 +1143,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,11 +1159,11 @@
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>85</v>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,13 +1171,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1185,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1202,10 +1202,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,10 +1216,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1229,22 +1229,22 @@
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>69</v>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>70</v>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>9</v>
@@ -1252,32 +1252,32 @@
     </row>
     <row r="23" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
